--- a/resources/Матрица операторного предшествования.xlsx
+++ b/resources/Матрица операторного предшествования.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA5F9BC-5FD3-0E40-8EDE-999684054C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -78,18 +79,27 @@
   <si>
     <t>==</t>
   </si>
+  <si>
+    <t>$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0000BB"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -360,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -384,33 +394,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,9 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,10 +418,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,6 +542,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -566,6 +594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -741,83 +786,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="108" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="V2" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -871,15 +919,18 @@
       <c r="T3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="U3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -933,15 +984,18 @@
       <c r="T4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="U4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -995,15 +1049,18 @@
       <c r="T5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U5" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="U5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1057,15 +1114,18 @@
       <c r="T6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U6" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="U6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1119,15 +1179,18 @@
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
+      <c r="U7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1181,15 +1244,18 @@
       <c r="T8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="20" t="s">
+      <c r="U8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1243,15 +1309,18 @@
       <c r="T9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20" t="s">
+      <c r="U9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1305,15 +1374,18 @@
       <c r="T10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+      <c r="U10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1367,15 +1439,18 @@
       <c r="T11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+      <c r="U11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1429,15 +1504,18 @@
       <c r="T12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19" t="s">
+      <c r="U12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1491,15 +1569,18 @@
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="U13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1553,15 +1634,18 @@
       <c r="T14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U14" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="U14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1615,15 +1699,18 @@
       <c r="T15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U15" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="U15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1677,15 +1764,18 @@
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
+      <c r="U16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1737,15 +1827,18 @@
       <c r="T17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="U17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1797,15 +1890,18 @@
       <c r="T18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U18" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="20" t="s">
+      <c r="U18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1859,15 +1955,16 @@
       <c r="T19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="U19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" s="22"/>
+    </row>
+    <row r="20" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1921,71 +2018,150 @@
       <c r="T20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="U20" s="13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="21" t="s">
+      <c r="U20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="S21" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>3</v>
-      </c>
+      <c r="C21" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" s="21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="26"/>
+      <c r="U22" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="27"/>
+    </row>
+    <row r="23" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="18"/>
+    </row>
+    <row r="24" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/Матрица операторного предшествования.xlsx
+++ b/resources/Матрица операторного предшествования.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10509"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA5F9BC-5FD3-0E40-8EDE-999684054C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18800" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18795" yWindow="0" windowWidth="10005" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +101,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,12 +122,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -380,9 +373,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,23 +532,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -594,23 +567,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -786,151 +742,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="108" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="6.5" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="T2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="V2" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="V3" s="19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -987,15 +943,15 @@
       <c r="U4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="V4" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1052,15 +1008,15 @@
       <c r="U5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V5" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="V5" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -1117,15 +1073,15 @@
       <c r="U6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V6" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="V6" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1182,15 +1138,15 @@
       <c r="U7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V7" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="V7" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1247,15 +1203,15 @@
       <c r="U8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V8" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
+      <c r="V8" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1307,20 +1263,20 @@
         <v>3</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V9" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="13" t="s">
+      <c r="V9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1372,20 +1328,20 @@
         <v>3</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V10" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
+      <c r="V10" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1437,20 +1393,20 @@
         <v>3</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V11" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="V11" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1502,20 +1458,20 @@
         <v>3</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V12" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="V12" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1567,20 +1523,20 @@
         <v>3</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V13" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="V13" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1632,20 +1588,20 @@
         <v>3</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V14" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="V14" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -1697,20 +1653,20 @@
         <v>3</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V15" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+      <c r="V15" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -1762,20 +1718,20 @@
         <v>3</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="V16" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="V16" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1830,15 +1786,15 @@
       <c r="U17" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V17" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13" t="s">
+      <c r="V17" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1893,15 +1849,15 @@
       <c r="U18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V18" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="V18" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1958,13 +1914,13 @@
       <c r="U19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V19" s="22"/>
-    </row>
-    <row r="20" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13" t="s">
+      <c r="V19" s="21"/>
+    </row>
+    <row r="20" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2012,7 +1968,7 @@
       <c r="R20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="5" t="s">
         <v>0</v>
       </c>
       <c r="T20" s="5" t="s">
@@ -2021,15 +1977,15 @@
       <c r="U20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="V20" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
+      <c r="V20" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2081,87 +2037,87 @@
         <v>3</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V21" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="V21" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="S22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T22" s="26"/>
-      <c r="U22" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="27"/>
-    </row>
-    <row r="23" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K25" s="18"/>
-    </row>
-    <row r="26" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K26" s="18"/>
+      <c r="C22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="26"/>
+    </row>
+    <row r="23" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="2:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
